--- a/UI_AUtomation_Selenium/src/TestData/TestData.xlsx
+++ b/UI_AUtomation_Selenium/src/TestData/TestData.xlsx
@@ -37,12 +37,6 @@
     <t>Login Test Case</t>
   </si>
   <si>
-    <t>anuj.indiait@gmail.com</t>
-  </si>
-  <si>
-    <t>Anuj007!</t>
-  </si>
-  <si>
     <t>Search Product Series</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Example“Laserjet P1102w driver” or “HP Pavilion 17-f002na will not turn on”</t>
+  </si>
+  <si>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -531,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -545,123 +545,123 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/UI_AUtomation_Selenium/src/TestData/TestData.xlsx
+++ b/UI_AUtomation_Selenium/src/TestData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>URL</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>anuj.kumar.sharma@hp.com</t>
-  </si>
-  <si>
-    <t>cat.bat-06</t>
   </si>
   <si>
     <t>SKU Search</t>
@@ -501,7 +498,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -545,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -589,79 +586,76 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
